--- a/contratos/contratos-1-2015.xlsx
+++ b/contratos/contratos-1-2015.xlsx
@@ -736,7 +736,7 @@
     <t>A. ROPELATO S.R.L.</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>CUPER S.C.</t>
@@ -817,7 +817,7 @@
     <t>GABIOUD HUGO ALBERTO Y EDUARDO RAUL S.H.</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>RADIO MECANO S.A.</t>
@@ -898,7 +898,7 @@
     <t>BENEDETTI MIGUEL ANGEL</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>VALORI GUILLERMO MIGUEL</t>
@@ -1009,7 +1009,7 @@
     <t>MAGRI HECTOR RAMON</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>CASA SPAIS S.A.</t>
@@ -1252,7 +1252,7 @@
     <t>GENESIS</t>
   </si>
   <si>
-    <t>MERCANZINI, GASTON ARIEL</t>
+    <t>MERCANZINI. GASTON ARIEL</t>
   </si>
   <si>
     <t>LGM PRODUCCIONES</t>
@@ -1399,652 +1399,652 @@
     <t>9</t>
   </si>
   <si>
-    <t>4.850,00</t>
-  </si>
-  <si>
-    <t>4.250,00</t>
-  </si>
-  <si>
-    <t>39.635,00</t>
-  </si>
-  <si>
-    <t>260.356,20</t>
-  </si>
-  <si>
-    <t>1.740,00</t>
-  </si>
-  <si>
-    <t>999,65</t>
-  </si>
-  <si>
-    <t>6.957,50</t>
-  </si>
-  <si>
-    <t>213.750,00</t>
-  </si>
-  <si>
-    <t>4.099,95</t>
-  </si>
-  <si>
-    <t>4.200,16</t>
-  </si>
-  <si>
-    <t>184.894,21</t>
-  </si>
-  <si>
-    <t>236.499,91</t>
-  </si>
-  <si>
-    <t>40.680,00</t>
-  </si>
-  <si>
-    <t>11.238,20</t>
-  </si>
-  <si>
-    <t>115.371,84</t>
-  </si>
-  <si>
-    <t>23.400,00</t>
-  </si>
-  <si>
-    <t>7.479,46</t>
-  </si>
-  <si>
-    <t>12.880,00</t>
-  </si>
-  <si>
-    <t>650,00</t>
-  </si>
-  <si>
-    <t>4.868,00</t>
-  </si>
-  <si>
-    <t>8.380,00</t>
-  </si>
-  <si>
-    <t>576,00</t>
-  </si>
-  <si>
-    <t>28.909,99</t>
-  </si>
-  <si>
-    <t>1.511,20</t>
-  </si>
-  <si>
-    <t>86,32</t>
-  </si>
-  <si>
-    <t>50.558,60</t>
-  </si>
-  <si>
-    <t>43.857,00</t>
-  </si>
-  <si>
-    <t>40.619,27</t>
-  </si>
-  <si>
-    <t>720,00</t>
-  </si>
-  <si>
-    <t>16.351,00</t>
-  </si>
-  <si>
-    <t>6.926,73</t>
-  </si>
-  <si>
-    <t>6.500,00</t>
-  </si>
-  <si>
-    <t>55,50</t>
-  </si>
-  <si>
-    <t>50,31</t>
-  </si>
-  <si>
-    <t>12.490,00</t>
-  </si>
-  <si>
-    <t>7.705,00</t>
-  </si>
-  <si>
-    <t>30.466,04</t>
-  </si>
-  <si>
-    <t>76,00</t>
-  </si>
-  <si>
-    <t>5.368,39</t>
-  </si>
-  <si>
-    <t>38,00</t>
-  </si>
-  <si>
-    <t>6.752,00</t>
-  </si>
-  <si>
-    <t>6.827,15</t>
-  </si>
-  <si>
-    <t>35.977,22</t>
-  </si>
-  <si>
-    <t>1.553,30</t>
-  </si>
-  <si>
-    <t>1.956,66</t>
-  </si>
-  <si>
-    <t>136.348,00</t>
-  </si>
-  <si>
-    <t>2.623,82</t>
-  </si>
-  <si>
-    <t>2.967,42</t>
-  </si>
-  <si>
-    <t>774,00</t>
-  </si>
-  <si>
-    <t>1.765,89</t>
-  </si>
-  <si>
-    <t>6.913,86</t>
-  </si>
-  <si>
-    <t>9.704,53</t>
-  </si>
-  <si>
-    <t>5.546,62</t>
-  </si>
-  <si>
-    <t>42.108,58</t>
-  </si>
-  <si>
-    <t>95,40</t>
-  </si>
-  <si>
-    <t>1.653,24</t>
-  </si>
-  <si>
-    <t>240,00</t>
-  </si>
-  <si>
-    <t>35.386,00</t>
-  </si>
-  <si>
-    <t>2.978,00</t>
-  </si>
-  <si>
-    <t>20.400,00</t>
-  </si>
-  <si>
-    <t>270,94</t>
-  </si>
-  <si>
-    <t>5.926,65</t>
-  </si>
-  <si>
-    <t>755,03</t>
-  </si>
-  <si>
-    <t>3.889,99</t>
-  </si>
-  <si>
-    <t>11.094,10</t>
-  </si>
-  <si>
-    <t>2.850,00</t>
-  </si>
-  <si>
-    <t>10.278,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>2.710,00</t>
-  </si>
-  <si>
-    <t>39.000,00</t>
-  </si>
-  <si>
-    <t>1.815,75</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>9.690,00</t>
-  </si>
-  <si>
-    <t>1.700,00</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>16.886,94</t>
-  </si>
-  <si>
-    <t>6.594,00</t>
-  </si>
-  <si>
-    <t>10.320,00</t>
-  </si>
-  <si>
-    <t>9.900,00</t>
-  </si>
-  <si>
-    <t>21.150,00</t>
-  </si>
-  <si>
-    <t>5.850,00</t>
-  </si>
-  <si>
-    <t>90,00</t>
-  </si>
-  <si>
-    <t>7.796,00</t>
-  </si>
-  <si>
-    <t>141,00</t>
-  </si>
-  <si>
-    <t>3.905,00</t>
-  </si>
-  <si>
-    <t>14.081,00</t>
-  </si>
-  <si>
-    <t>2.525,99</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>1.920,00</t>
-  </si>
-  <si>
-    <t>14.000,00</t>
-  </si>
-  <si>
-    <t>45.638,43</t>
-  </si>
-  <si>
-    <t>11.799,99</t>
-  </si>
-  <si>
-    <t>8.190,67</t>
-  </si>
-  <si>
-    <t>345.761,96</t>
-  </si>
-  <si>
-    <t>350,00</t>
-  </si>
-  <si>
-    <t>36.474,25</t>
-  </si>
-  <si>
-    <t>5.710,00</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>21,49</t>
-  </si>
-  <si>
-    <t>3.261,00</t>
-  </si>
-  <si>
-    <t>0,63</t>
-  </si>
-  <si>
-    <t>172,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>850,00</t>
-  </si>
-  <si>
-    <t>20.772,36</t>
-  </si>
-  <si>
-    <t>38.169,49</t>
-  </si>
-  <si>
-    <t>4.210,00</t>
-  </si>
-  <si>
-    <t>19,87</t>
-  </si>
-  <si>
-    <t>16.337,30</t>
-  </si>
-  <si>
-    <t>2.819,00</t>
-  </si>
-  <si>
-    <t>293,10</t>
-  </si>
-  <si>
-    <t>1.206,20</t>
-  </si>
-  <si>
-    <t>78.000,00</t>
-  </si>
-  <si>
-    <t>110,01</t>
-  </si>
-  <si>
-    <t>4.130,00</t>
-  </si>
-  <si>
-    <t>760,00</t>
-  </si>
-  <si>
-    <t>309,00</t>
-  </si>
-  <si>
-    <t>25.535,00</t>
-  </si>
-  <si>
-    <t>948,00</t>
-  </si>
-  <si>
-    <t>360,00</t>
-  </si>
-  <si>
-    <t>3.580,00</t>
-  </si>
-  <si>
-    <t>332,52</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>204.750,00</t>
-  </si>
-  <si>
-    <t>3.700,00</t>
-  </si>
-  <si>
-    <t>4.200,00</t>
-  </si>
-  <si>
-    <t>3.533,20</t>
-  </si>
-  <si>
-    <t>18.650,00</t>
-  </si>
-  <si>
-    <t>8.500,00</t>
-  </si>
-  <si>
-    <t>2.310,00</t>
-  </si>
-  <si>
-    <t>1.695,00</t>
-  </si>
-  <si>
-    <t>1.284,10</t>
-  </si>
-  <si>
-    <t>117.976,00</t>
-  </si>
-  <si>
-    <t>23.500,00</t>
-  </si>
-  <si>
-    <t>9.600,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>2.285,00</t>
-  </si>
-  <si>
-    <t>211.467,00</t>
-  </si>
-  <si>
-    <t>420.877,00</t>
-  </si>
-  <si>
-    <t>1.692,06</t>
-  </si>
-  <si>
-    <t>515,45</t>
-  </si>
-  <si>
-    <t>330,50</t>
-  </si>
-  <si>
-    <t>121,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>684.360,00</t>
-  </si>
-  <si>
-    <t>210.270,52</t>
-  </si>
-  <si>
-    <t>41.938,54</t>
-  </si>
-  <si>
-    <t>3.300,00</t>
-  </si>
-  <si>
-    <t>4.300,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>8.137,25</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>2.300,00</t>
-  </si>
-  <si>
-    <t>1.300,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>9.280,00</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>10.080,00</t>
-  </si>
-  <si>
-    <t>585,00</t>
-  </si>
-  <si>
-    <t>50.644,50</t>
-  </si>
-  <si>
-    <t>9.650,00</t>
-  </si>
-  <si>
-    <t>32,50</t>
-  </si>
-  <si>
-    <t>2.444,00</t>
-  </si>
-  <si>
-    <t>980,00</t>
-  </si>
-  <si>
-    <t>5.300,00</t>
-  </si>
-  <si>
-    <t>1.455,95</t>
-  </si>
-  <si>
-    <t>21.720,00</t>
-  </si>
-  <si>
-    <t>7.015,00</t>
-  </si>
-  <si>
-    <t>5.474,24</t>
-  </si>
-  <si>
-    <t>405,50</t>
-  </si>
-  <si>
-    <t>2.812,60</t>
-  </si>
-  <si>
-    <t>744,50</t>
-  </si>
-  <si>
-    <t>11.920,00</t>
-  </si>
-  <si>
-    <t>14.399,96</t>
-  </si>
-  <si>
-    <t>1.713,00</t>
-  </si>
-  <si>
-    <t>5.330,61</t>
-  </si>
-  <si>
-    <t>11.897,62</t>
-  </si>
-  <si>
-    <t>2.360,00</t>
-  </si>
-  <si>
-    <t>470,00</t>
-  </si>
-  <si>
-    <t>1.626,00</t>
-  </si>
-  <si>
-    <t>2.700,00</t>
-  </si>
-  <si>
-    <t>630,00</t>
-  </si>
-  <si>
-    <t>4.295,20</t>
-  </si>
-  <si>
-    <t>2.415,20</t>
-  </si>
-  <si>
-    <t>5.295,93</t>
-  </si>
-  <si>
-    <t>4.800,00</t>
-  </si>
-  <si>
-    <t>12.200,00</t>
-  </si>
-  <si>
-    <t>208.120,00</t>
-  </si>
-  <si>
-    <t>16.800,00</t>
-  </si>
-  <si>
-    <t>6.292,00</t>
-  </si>
-  <si>
-    <t>245.520,00</t>
-  </si>
-  <si>
-    <t>2.744.849,51</t>
-  </si>
-  <si>
-    <t>129.544,00</t>
-  </si>
-  <si>
-    <t>92.780,00</t>
-  </si>
-  <si>
-    <t>120.372,00</t>
-  </si>
-  <si>
-    <t>128.000,00</t>
-  </si>
-  <si>
-    <t>6.473.830,54</t>
-  </si>
-  <si>
-    <t>28.154,50</t>
-  </si>
-  <si>
-    <t>190.000,00</t>
-  </si>
-  <si>
-    <t>217.993,70</t>
-  </si>
-  <si>
-    <t>5.488,40</t>
-  </si>
-  <si>
-    <t>122.990,00</t>
-  </si>
-  <si>
-    <t>45.000,00</t>
-  </si>
-  <si>
-    <t>187.400,00</t>
-  </si>
-  <si>
-    <t>4.435,60</t>
-  </si>
-  <si>
-    <t>2.100,00</t>
-  </si>
-  <si>
-    <t>22.400,00</t>
-  </si>
-  <si>
-    <t>23.120,00</t>
-  </si>
-  <si>
-    <t>2.784,95</t>
-  </si>
-  <si>
-    <t>53.500,00</t>
-  </si>
-  <si>
-    <t>7.200,00</t>
+    <t>4850.00</t>
+  </si>
+  <si>
+    <t>4250.00</t>
+  </si>
+  <si>
+    <t>39635.00</t>
+  </si>
+  <si>
+    <t>260356.20</t>
+  </si>
+  <si>
+    <t>1740.00</t>
+  </si>
+  <si>
+    <t>999.65</t>
+  </si>
+  <si>
+    <t>6957.50</t>
+  </si>
+  <si>
+    <t>213750.00</t>
+  </si>
+  <si>
+    <t>4099.95</t>
+  </si>
+  <si>
+    <t>4200.16</t>
+  </si>
+  <si>
+    <t>184894.21</t>
+  </si>
+  <si>
+    <t>236499.91</t>
+  </si>
+  <si>
+    <t>40680.00</t>
+  </si>
+  <si>
+    <t>11238.20</t>
+  </si>
+  <si>
+    <t>115371.84</t>
+  </si>
+  <si>
+    <t>23400.00</t>
+  </si>
+  <si>
+    <t>7479.46</t>
+  </si>
+  <si>
+    <t>12880.00</t>
+  </si>
+  <si>
+    <t>650.00</t>
+  </si>
+  <si>
+    <t>4868.00</t>
+  </si>
+  <si>
+    <t>8380.00</t>
+  </si>
+  <si>
+    <t>576.00</t>
+  </si>
+  <si>
+    <t>28909.99</t>
+  </si>
+  <si>
+    <t>1511.20</t>
+  </si>
+  <si>
+    <t>86.32</t>
+  </si>
+  <si>
+    <t>50558.60</t>
+  </si>
+  <si>
+    <t>43857.00</t>
+  </si>
+  <si>
+    <t>40619.27</t>
+  </si>
+  <si>
+    <t>720.00</t>
+  </si>
+  <si>
+    <t>16351.00</t>
+  </si>
+  <si>
+    <t>6926.73</t>
+  </si>
+  <si>
+    <t>6500.00</t>
+  </si>
+  <si>
+    <t>55.50</t>
+  </si>
+  <si>
+    <t>50.31</t>
+  </si>
+  <si>
+    <t>12490.00</t>
+  </si>
+  <si>
+    <t>7705.00</t>
+  </si>
+  <si>
+    <t>30466.04</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>5368.39</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>6752.00</t>
+  </si>
+  <si>
+    <t>6827.15</t>
+  </si>
+  <si>
+    <t>35977.22</t>
+  </si>
+  <si>
+    <t>1553.30</t>
+  </si>
+  <si>
+    <t>1956.66</t>
+  </si>
+  <si>
+    <t>136348.00</t>
+  </si>
+  <si>
+    <t>2623.82</t>
+  </si>
+  <si>
+    <t>2967.42</t>
+  </si>
+  <si>
+    <t>774.00</t>
+  </si>
+  <si>
+    <t>1765.89</t>
+  </si>
+  <si>
+    <t>6913.86</t>
+  </si>
+  <si>
+    <t>9704.53</t>
+  </si>
+  <si>
+    <t>5546.62</t>
+  </si>
+  <si>
+    <t>42108.58</t>
+  </si>
+  <si>
+    <t>95.40</t>
+  </si>
+  <si>
+    <t>1653.24</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>35386.00</t>
+  </si>
+  <si>
+    <t>2978.00</t>
+  </si>
+  <si>
+    <t>20400.00</t>
+  </si>
+  <si>
+    <t>270.94</t>
+  </si>
+  <si>
+    <t>5926.65</t>
+  </si>
+  <si>
+    <t>755.03</t>
+  </si>
+  <si>
+    <t>3889.99</t>
+  </si>
+  <si>
+    <t>11094.10</t>
+  </si>
+  <si>
+    <t>2850.00</t>
+  </si>
+  <si>
+    <t>10278.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>2710.00</t>
+  </si>
+  <si>
+    <t>39000.00</t>
+  </si>
+  <si>
+    <t>1815.75</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>9690.00</t>
+  </si>
+  <si>
+    <t>1700.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>16886.94</t>
+  </si>
+  <si>
+    <t>6594.00</t>
+  </si>
+  <si>
+    <t>10320.00</t>
+  </si>
+  <si>
+    <t>9900.00</t>
+  </si>
+  <si>
+    <t>21150.00</t>
+  </si>
+  <si>
+    <t>5850.00</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>7796.00</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>3905.00</t>
+  </si>
+  <si>
+    <t>14081.00</t>
+  </si>
+  <si>
+    <t>2525.99</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>1920.00</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>45638.43</t>
+  </si>
+  <si>
+    <t>11799.99</t>
+  </si>
+  <si>
+    <t>8190.67</t>
+  </si>
+  <si>
+    <t>345761.96</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>36474.25</t>
+  </si>
+  <si>
+    <t>5710.00</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>21.49</t>
+  </si>
+  <si>
+    <t>3261.00</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>172.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>850.00</t>
+  </si>
+  <si>
+    <t>20772.36</t>
+  </si>
+  <si>
+    <t>38169.49</t>
+  </si>
+  <si>
+    <t>4210.00</t>
+  </si>
+  <si>
+    <t>19.87</t>
+  </si>
+  <si>
+    <t>16337.30</t>
+  </si>
+  <si>
+    <t>2819.00</t>
+  </si>
+  <si>
+    <t>293.10</t>
+  </si>
+  <si>
+    <t>1206.20</t>
+  </si>
+  <si>
+    <t>78000.00</t>
+  </si>
+  <si>
+    <t>110.01</t>
+  </si>
+  <si>
+    <t>4130.00</t>
+  </si>
+  <si>
+    <t>760.00</t>
+  </si>
+  <si>
+    <t>309.00</t>
+  </si>
+  <si>
+    <t>25535.00</t>
+  </si>
+  <si>
+    <t>948.00</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>3580.00</t>
+  </si>
+  <si>
+    <t>332.52</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>204750.00</t>
+  </si>
+  <si>
+    <t>3700.00</t>
+  </si>
+  <si>
+    <t>4200.00</t>
+  </si>
+  <si>
+    <t>3533.20</t>
+  </si>
+  <si>
+    <t>18650.00</t>
+  </si>
+  <si>
+    <t>8500.00</t>
+  </si>
+  <si>
+    <t>2310.00</t>
+  </si>
+  <si>
+    <t>1695.00</t>
+  </si>
+  <si>
+    <t>1284.10</t>
+  </si>
+  <si>
+    <t>117976.00</t>
+  </si>
+  <si>
+    <t>23500.00</t>
+  </si>
+  <si>
+    <t>9600.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>2285.00</t>
+  </si>
+  <si>
+    <t>211467.00</t>
+  </si>
+  <si>
+    <t>420877.00</t>
+  </si>
+  <si>
+    <t>1692.06</t>
+  </si>
+  <si>
+    <t>515.45</t>
+  </si>
+  <si>
+    <t>330.50</t>
+  </si>
+  <si>
+    <t>121.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>684360.00</t>
+  </si>
+  <si>
+    <t>210270.52</t>
+  </si>
+  <si>
+    <t>41938.54</t>
+  </si>
+  <si>
+    <t>3300.00</t>
+  </si>
+  <si>
+    <t>4300.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>8137.25</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>2300.00</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>9280.00</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>10080.00</t>
+  </si>
+  <si>
+    <t>585.00</t>
+  </si>
+  <si>
+    <t>50644.50</t>
+  </si>
+  <si>
+    <t>9650.00</t>
+  </si>
+  <si>
+    <t>32.50</t>
+  </si>
+  <si>
+    <t>2444.00</t>
+  </si>
+  <si>
+    <t>980.00</t>
+  </si>
+  <si>
+    <t>5300.00</t>
+  </si>
+  <si>
+    <t>1455.95</t>
+  </si>
+  <si>
+    <t>21720.00</t>
+  </si>
+  <si>
+    <t>7015.00</t>
+  </si>
+  <si>
+    <t>5474.24</t>
+  </si>
+  <si>
+    <t>405.50</t>
+  </si>
+  <si>
+    <t>2812.60</t>
+  </si>
+  <si>
+    <t>744.50</t>
+  </si>
+  <si>
+    <t>11920.00</t>
+  </si>
+  <si>
+    <t>14399.96</t>
+  </si>
+  <si>
+    <t>1713.00</t>
+  </si>
+  <si>
+    <t>5330.61</t>
+  </si>
+  <si>
+    <t>11897.62</t>
+  </si>
+  <si>
+    <t>2360.00</t>
+  </si>
+  <si>
+    <t>470.00</t>
+  </si>
+  <si>
+    <t>1626.00</t>
+  </si>
+  <si>
+    <t>2700.00</t>
+  </si>
+  <si>
+    <t>630.00</t>
+  </si>
+  <si>
+    <t>4295.20</t>
+  </si>
+  <si>
+    <t>2415.20</t>
+  </si>
+  <si>
+    <t>5295.93</t>
+  </si>
+  <si>
+    <t>4800.00</t>
+  </si>
+  <si>
+    <t>12200.00</t>
+  </si>
+  <si>
+    <t>208120.00</t>
+  </si>
+  <si>
+    <t>16800.00</t>
+  </si>
+  <si>
+    <t>6292.00</t>
+  </si>
+  <si>
+    <t>245520.00</t>
+  </si>
+  <si>
+    <t>2744849.51</t>
+  </si>
+  <si>
+    <t>129544.00</t>
+  </si>
+  <si>
+    <t>92780.00</t>
+  </si>
+  <si>
+    <t>120372.00</t>
+  </si>
+  <si>
+    <t>128000.00</t>
+  </si>
+  <si>
+    <t>6473830.54</t>
+  </si>
+  <si>
+    <t>28154.50</t>
+  </si>
+  <si>
+    <t>190000.00</t>
+  </si>
+  <si>
+    <t>217993.70</t>
+  </si>
+  <si>
+    <t>5488.40</t>
+  </si>
+  <si>
+    <t>122990.00</t>
+  </si>
+  <si>
+    <t>45000.00</t>
+  </si>
+  <si>
+    <t>187400.00</t>
+  </si>
+  <si>
+    <t>4435.60</t>
+  </si>
+  <si>
+    <t>2100.00</t>
+  </si>
+  <si>
+    <t>22400.00</t>
+  </si>
+  <si>
+    <t>23120.00</t>
+  </si>
+  <si>
+    <t>2784.95</t>
+  </si>
+  <si>
+    <t>53500.00</t>
+  </si>
+  <si>
+    <t>7200.00</t>
   </si>
 </sst>
 </file>
